--- a/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 8 (25, 44, 40, 41, 43)/MDD 9 (4, 32, 48, 44, 31)/ANN_128nodes_Uniform0.05Virtual_Control(25, 44, 40, 41, 43)_MDD(4, 32, 48, 44, 31)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
+++ b/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 8 (25, 44, 40, 41, 43)/MDD 9 (4, 32, 48, 44, 31)/ANN_128nodes_Uniform0.05Virtual_Control(25, 44, 40, 41, 43)_MDD(4, 32, 48, 44, 31)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
@@ -456,10 +456,10 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>4.077961197549756E-21</v>
+        <v>3.219486227640922E-25</v>
       </c>
       <c r="E2">
-        <v>4.077961197549756E-21</v>
+        <v>3.219486227640922E-25</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -470,10 +470,10 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>1.467981895608633E-96</v>
+        <v>6.168244507974023E-117</v>
       </c>
       <c r="E3">
-        <v>1.467981895608633E-96</v>
+        <v>6.168244507974023E-117</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -484,10 +484,10 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>4.117307346145703E-18</v>
+        <v>1.875665055899347E-18</v>
       </c>
       <c r="E4">
-        <v>4.117307346145703E-18</v>
+        <v>1.875665055899347E-18</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -495,13 +495,13 @@
         <v>9</v>
       </c>
       <c r="C5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>0.9906211516739162</v>
+        <v>9.325267039812473E-05</v>
       </c>
       <c r="E5">
-        <v>0.9906211516739162</v>
+        <v>9.325267039812473E-05</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -512,10 +512,10 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.9999999999999589</v>
+        <v>0.999999999999986</v>
       </c>
       <c r="E6">
-        <v>0.9999999999999589</v>
+        <v>0.999999999999986</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -526,10 +526,10 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>1.747082905374336E-06</v>
+        <v>7.504364592610758E-07</v>
       </c>
       <c r="E7">
-        <v>0.9999982529170947</v>
+        <v>0.9999992495635407</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -540,10 +540,10 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>4.353507694149146E-06</v>
+        <v>2.401195989773849E-09</v>
       </c>
       <c r="E8">
-        <v>0.9999956464923059</v>
+        <v>0.999999997598804</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -568,10 +568,10 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>3.307618439742659E-16</v>
+        <v>1.052265235620386E-15</v>
       </c>
       <c r="E10">
-        <v>0.9999999999999997</v>
+        <v>0.999999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -582,16 +582,16 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>0.9999999999999958</v>
+        <v>0.9999999999999243</v>
       </c>
       <c r="E11">
-        <v>4.218847493575595E-15</v>
+        <v>7.571721027943568E-14</v>
       </c>
       <c r="F11">
-        <v>9.674188613891602</v>
+        <v>10.03421592712402</v>
       </c>
       <c r="G11">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
   </sheetData>
